--- a/biology/Botanique/Redfree/Redfree.xlsx
+++ b/biology/Botanique/Redfree/Redfree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Redfree est le nom d'un cultivar de pommier domestique aussi répertorié sous les appellations PRI 2175-7 et Co-op 13[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Redfree est le nom d'un cultivar de pommier domestique aussi répertorié sous les appellations PRI 2175-7 et Co-op 13.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">USA, fruit des recherches du groupe universitaire PRI (Universités : Perdue, Rudgers et d'Illinois)
 Obtenue par Williams et al. 1981, U.S. Plant Patent No. 4,322
@@ -543,7 +557,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pedigree : Raritan x PRI 1018-101
 Descendants :
@@ -575,7 +591,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
 Groupe de pollinisation : C (mi-saison)
@@ -607,9 +625,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maladies :[2] variété immunisée aux races communes de tavelure du pommier et à la rouille. Peu susceptible au mildiou et au feu bactérien.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maladies : variété immunisée aux races communes de tavelure du pommier et à la rouille. Peu susceptible au mildiou et au feu bactérien.
 </t>
         </is>
       </c>
